--- a/工作簿1.xlsx
+++ b/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\文件备份\数据流项目\代码文件夹\my_simulate_cache\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F24F10-95DD-41F0-9D83-7B89D5407284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1309DACF-AADB-415E-A873-6639C5737579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="40">
   <si>
     <t>FT-bound</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,12 +162,88 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>选择bs=1,half</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>FFN1-time%</t>
+  </si>
+  <si>
+    <t>DRAM-access</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ideal/real</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择bs=470,half</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamma3-70B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidden size=8192, intermediate_size = 28672</t>
+  </si>
+  <si>
+    <t>选择bs=280,half</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256-bs16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNK=16384,14336,4096</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GemmIdentityThreadblockSwizzle&lt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 hit rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arithmetic intensity(DRAM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(L1 L2的AI基本不变)</t>
+  </si>
+  <si>
+    <t>outer-cycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ncu-cycle(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GemmHorizontalThreadblockSwizzle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +275,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,6 +338,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -722,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -735,18 +848,21 @@
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" customWidth="1"/>
     <col min="6" max="7" width="15.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" customWidth="1"/>
+    <col min="9" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -758,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -784,16 +900,28 @@
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>16384</v>
       </c>
@@ -807,16 +935,32 @@
       <c r="G4" s="4">
         <v>0.5</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="3">
+        <v>0.92069999999999996</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4216092800</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.1714</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="5">
+      <c r="L4" s="3">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="M4" s="5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>3239052416</v>
+      </c>
+      <c r="O4" s="8">
+        <v>7.7700000000000005E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8192</v>
       </c>
@@ -829,20 +973,28 @@
       <c r="H5" s="2">
         <v>0.91510000000000002</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L5" s="2">
         <v>0.63959999999999995</v>
       </c>
-      <c r="K5" s="5">
+      <c r="M5" s="5">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4096</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.94340000000000002</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
@@ -852,17 +1004,19 @@
       <c r="H6" s="2">
         <v>0.90659999999999996</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>0.66869999999999996</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2048</v>
       </c>
@@ -875,17 +1029,19 @@
       <c r="H7" s="2">
         <v>0.90690000000000004</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>0.70309999999999995</v>
       </c>
-      <c r="K7" s="5">
+      <c r="M7" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1024</v>
       </c>
@@ -898,17 +1054,19 @@
       <c r="H8" s="2">
         <v>0.82440000000000002</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="2">
+      <c r="L8" s="2">
         <v>0.87170000000000003</v>
       </c>
-      <c r="K8" s="5">
+      <c r="M8" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>512</v>
       </c>
@@ -917,571 +1075,914 @@
       <c r="H9" s="2">
         <v>0.82479999999999998</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2">
         <v>0.82410000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>256</v>
-      </c>
-      <c r="F10" s="1"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="2">
-        <v>0.68889999999999996</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2">
-        <v>0.66269999999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.71930000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2">
-        <v>0.37530000000000002</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2">
-        <v>0.65400000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.68889999999999996</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="2">
+        <v>0.66269999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2">
-        <v>0.20930000000000001</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2">
-        <v>0.32990000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.37530000000000002</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="2">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2">
-        <v>0.1198</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2">
-        <v>0.33300000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="2">
+        <v>0.32990000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2">
-        <v>6.7999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+        <v>0.1198</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="2">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="2">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="2">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>16384</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.87370000000000003</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0.91720000000000002</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>8192</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.45</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>4096</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+      <c r="H20" s="3">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="I20" s="7">
+        <v>8269641600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0.81730000000000003</v>
+      </c>
+      <c r="N20">
+        <v>2898227456</v>
+      </c>
+      <c r="O20" s="2">
+        <v>8.6800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>8192</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>4096</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>2048</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1024</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>512</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>512</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.77939999999999998</v>
+      </c>
+      <c r="I25">
+        <v>177350400</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.76180000000000003</v>
+      </c>
+      <c r="N25">
+        <v>191740928</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.63449999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>128</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="I27">
+        <v>141815296</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="K27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.62150000000000005</v>
+      </c>
+      <c r="N27">
+        <v>140012928</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0.84630000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>64</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>32</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>512</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.62870000000000004</v>
+      </c>
+      <c r="I31">
+        <v>71570476544</v>
+      </c>
+      <c r="J31" s="2">
+        <v>7.5700000000000003E-2</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.8075</v>
+      </c>
+      <c r="N31">
+        <v>25857504000</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>512</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.65010000000000001</v>
+      </c>
+      <c r="I33">
+        <v>408671020160</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.62190000000000001</v>
+      </c>
+      <c r="N33">
+        <v>486672454400</v>
+      </c>
+      <c r="O33" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>8192</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>4096</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>16384</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.87370000000000003</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>8192</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>4096</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>1024</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>512</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>256</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>128</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>32</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="2"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B70" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" t="s">
+        <v>36</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D73" s="2">
+        <v>0.66910000000000003</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73">
+        <v>15.39</v>
+      </c>
+      <c r="I73">
+        <v>13.49</v>
+      </c>
+      <c r="J73">
+        <v>27.495200000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B74">
         <v>2</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="D74" s="2">
+        <v>0.79069999999999996</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74">
+        <v>28.66</v>
+      </c>
+      <c r="I74">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75">
+        <v>50.75</v>
+      </c>
+      <c r="I75">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>8</v>
       </c>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="3">
-        <v>0.62549999999999994</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="3">
-        <v>0.81730000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>8192</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="2">
-        <v>0.62539999999999996</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="2">
-        <v>0.81279999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>4096</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="2">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>1024</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="D76" s="2">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76">
+        <v>73.959999999999994</v>
+      </c>
+      <c r="I76">
+        <v>12.14</v>
+      </c>
+      <c r="J76">
+        <v>15.6158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>16</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="1"/>
+      <c r="J77">
+        <v>15.610300000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>32</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="1"/>
+      <c r="J78">
+        <v>15.691000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B79">
         <v>128</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>4090</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>16384</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="3"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>8192</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>4096</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>1024</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>1</v>
+      <c r="D79" s="2"/>
+      <c r="E79" s="1"/>
+      <c r="J79">
+        <v>15.608700000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
